--- a/biology/Zoologie/Corbeau_de_Tasmanie/Corbeau_de_Tasmanie.xlsx
+++ b/biology/Zoologie/Corbeau_de_Tasmanie/Corbeau_de_Tasmanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corvus tasmanicus
 Le Corbeau de Tasmanie (Corvus tasmanicus) est une espèce d'oiseaux de la famille des Corvidae. C'est le seul représentant du genre corvidé en Tasmanie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau de grande taille (50  à   52 cm de long). Il a un bec plus long et une queue plus courte que les autres espèces continentales.
 </t>
@@ -545,12 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-espèces
-C. t. boreus Rowley, I, 1970 — nod-est de la Nouvelle-Galles du Sud.
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. t. boreus Rowley, I, 1970 — nod-est de la Nouvelle-Galles du Sud.
 C. t. tasmanicus Mathews, 1912 – État de Victoria et Tasmanie.
 Le Corbeau de Rowley (Corvus tasmanicus boreus, parfois : Corvus boreus) est désormais considéré comme une sous-espèce du Corbeau de Tasmanie. Son nom commémore son descripteur, l'ornithologue australien Ian Cecil Robert Rowley. Il réside à travers un petit territoire des plateaux du nord-est de la Nouvelle-Galles du Sud.
-Habitat
-Le corbeau de Tasmanie a un habitat très varié : bois, clairières, montagnes, bords de mer, campagne, villes et friches industrielles.
 </t>
         </is>
       </c>
@@ -576,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alimentation</t>
+          <t>Répartition et habitat</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omnivore, il se nourrit de toutes sortes d'aliments : insectes, charognes, fruits, graines, vers de terre. Il peut tuer et dévorer des oiseaux aussi gros que la Mouette argentée (Larus novaehollandiae) en utilisant la ruse : faisant semblant de fouiller le sol, il s'en approche à courte distance pour pouvoir la tuer.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corbeau de Tasmanie a un habitat très varié : bois, clairières, montagnes, bords de mer, campagne, villes et friches industrielles.
 </t>
         </is>
       </c>
@@ -607,12 +630,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres corvidés australiens, il fait un nid de grosses branches au sommet des arbres.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omnivore, il se nourrit de toutes sortes d'aliments : insectes, charognes, fruits, graines, vers de terre. Il peut tuer et dévorer des oiseaux aussi gros que la Mouette argentée (Larus novaehollandiae) en utilisant la ruse : faisant semblant de fouiller le sol, il s'en approche à courte distance pour pouvoir la tuer.
 </t>
         </is>
       </c>
@@ -638,12 +663,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cri</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un « korr-korr-korr-korr » avec une chute qui rappelle le corbeau d'Australie
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres corvidés australiens, il fait un nid de grosses branches au sommet des arbres.
 </t>
         </is>
       </c>
@@ -669,10 +696,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Cri</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un « korr-korr-korr-korr » avec une chute qui rappelle le corbeau d'Australie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corbeau_de_Tasmanie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbeau_de_Tasmanie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liens photos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Corbeau de Tasmanie
 Corbeau de Tasmanie
